--- a/績效指標.xlsx
+++ b/績效指標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC34228-F41A-4ED5-8416-5706A19D9DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAB7919-3D22-43F6-B95D-1A9D0A26F74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="3855" windowWidth="16200" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{BDD769FD-57AA-4995-A1F1-4E12260BA61A}"/>
+    <workbookView xWindow="8610" yWindow="3855" windowWidth="16200" windowHeight="11385" xr2:uid="{BDD769FD-57AA-4995-A1F1-4E12260BA61A}"/>
   </bookViews>
   <sheets>
     <sheet name="CART、C4.5與C5.0演算法的績效比較" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>演算法</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>最佳決策樹節點數量策略</t>
+  </si>
+  <si>
+    <t>ID3</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C787C0C0-B48C-414C-BD6A-01B55C67E1E9}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -518,48 +521,71 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0.96609999999999996</v>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.96640000000000004</v>
       </c>
       <c r="C3">
-        <v>0.78136913600000002</v>
+        <v>0.77559944000000003</v>
       </c>
       <c r="D3">
-        <v>0.78069999999999995</v>
+        <v>0.78080000000000005</v>
       </c>
       <c r="E3">
-        <v>0.78136913641637595</v>
+        <v>0.77736518589541104</v>
       </c>
       <c r="F3">
-        <v>0.55985915492957705</v>
+        <v>0.55412151216565597</v>
       </c>
       <c r="G3">
-        <v>0.53391537944929401</v>
+        <v>0.533917894411294</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.78136913600000002</v>
+      </c>
+      <c r="D4">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.78136913641637595</v>
+      </c>
+      <c r="F4">
+        <v>0.55985915492957705</v>
+      </c>
+      <c r="G4">
+        <v>0.53391537944929401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>0.96650000000000003</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.77623073099999995</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0.78049999999999997</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0.77623073097961204</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.55047204066811894</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>0.50906648757555395</v>
       </c>
     </row>
@@ -574,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707676F9-210B-4190-B39D-BB171926EC4C}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
